--- a/DRDC.xlsx
+++ b/DRDC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\Payrollcomp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9443AF7-D88A-43B5-BB92-41D6BBF4E3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8292B61-9E4A-48A1-A531-0B1ADADE17E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="PAYROLL-2ND-BATCH" sheetId="4" r:id="rId4"/>
     <sheet name="PAYROLL-MASTER-FILE" sheetId="5" r:id="rId5"/>
     <sheet name="SSS" sheetId="6" r:id="rId6"/>
+    <sheet name="SSS-TABLE" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3319,7 +3320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="130">
   <si>
     <t>DURAVILLE REALTY AND DEVELOPMENT CORPORATION</t>
   </si>
@@ -3685,6 +3686,30 @@
   </si>
   <si>
     <t>BASIC_PAY_ADJUSTMENT</t>
+  </si>
+  <si>
+    <t>rate_to</t>
+  </si>
+  <si>
+    <t>rate_from</t>
+  </si>
+  <si>
+    <t>employee_share</t>
+  </si>
+  <si>
+    <t>ss_provident_emp</t>
+  </si>
+  <si>
+    <t>employer_Share</t>
+  </si>
+  <si>
+    <t>ss_provident_empr</t>
+  </si>
+  <si>
+    <t>ecc</t>
+  </si>
+  <si>
+    <t>91523</t>
   </si>
 </sst>
 </file>
@@ -27093,7 +27118,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27162,44 +27187,25 @@
         <v>-2.56</v>
       </c>
       <c r="D2" s="81">
-        <v>1006.42</v>
-      </c>
-      <c r="L2" s="81">
-        <v>0</v>
-      </c>
-      <c r="M2" s="81">
-        <v>0</v>
+        <v>862.65</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="92">
-        <v>91545</v>
-      </c>
-      <c r="B3" s="81">
-        <v>0</v>
-      </c>
+      <c r="A3" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="81"/>
       <c r="C3" s="81"/>
       <c r="D3" s="81">
-        <v>0</v>
-      </c>
-      <c r="L3" s="81">
-        <v>0</v>
-      </c>
-      <c r="M3" s="81">
-        <v>0</v>
+        <v>503.48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <v>91486</v>
       </c>
-      <c r="B4" s="81">
-        <v>0</v>
-      </c>
+      <c r="B4" s="81"/>
       <c r="C4" s="81"/>
-      <c r="D4" s="81">
-        <v>0</v>
-      </c>
       <c r="L4" s="81">
         <v>738.32</v>
       </c>
@@ -27209,17 +27215,14 @@
         <v>91645</v>
       </c>
       <c r="B5" s="81">
-        <v>0</v>
+        <v>-170.13</v>
       </c>
       <c r="C5" s="81"/>
-      <c r="D5" s="81">
-        <v>0</v>
-      </c>
-      <c r="L5" s="81">
-        <v>0</v>
-      </c>
-      <c r="M5" s="81">
-        <v>0</v>
+      <c r="E5" s="81">
+        <v>28.75</v>
+      </c>
+      <c r="H5" s="81">
+        <v>-1150.1600000000001</v>
       </c>
     </row>
   </sheetData>
@@ -27233,7 +27236,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27368,7 +27371,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27430,8 +27433,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="90">
-        <v>91545</v>
+      <c r="A3" s="90" t="s">
+        <v>129</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>112</v>
@@ -27515,15 +27518,16 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="81" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28313,4 +28317,810 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77EE28E-F9DF-4FC3-AE64-F298229F6CE5}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="81" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="81">
+        <v>13750</v>
+      </c>
+      <c r="B2" s="81">
+        <v>14249.99</v>
+      </c>
+      <c r="C2">
+        <v>630</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1330</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="81">
+        <v>14250</v>
+      </c>
+      <c r="B3" s="81">
+        <v>14749.99</v>
+      </c>
+      <c r="C3">
+        <v>652.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1377.5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="81">
+        <v>14750</v>
+      </c>
+      <c r="B4" s="81">
+        <v>15249.99</v>
+      </c>
+      <c r="C4">
+        <v>675</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1425</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="81">
+        <v>15250</v>
+      </c>
+      <c r="B5" s="81">
+        <v>15749.99</v>
+      </c>
+      <c r="C5">
+        <v>697.5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1472.5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="81">
+        <v>15750</v>
+      </c>
+      <c r="B6" s="81">
+        <v>16249.99</v>
+      </c>
+      <c r="C6">
+        <v>720</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1520</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="81">
+        <v>16250</v>
+      </c>
+      <c r="B7" s="81">
+        <v>16749.990000000002</v>
+      </c>
+      <c r="C7">
+        <v>742.5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1567.5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="81">
+        <v>16750</v>
+      </c>
+      <c r="B8" s="81">
+        <v>17249.990000000002</v>
+      </c>
+      <c r="C8">
+        <v>765</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1615</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="81">
+        <v>17250</v>
+      </c>
+      <c r="B9" s="81">
+        <v>17749.990000000002</v>
+      </c>
+      <c r="C9">
+        <v>787.5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1662.5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="81">
+        <v>17750</v>
+      </c>
+      <c r="B10" s="81">
+        <v>18249.990000000002</v>
+      </c>
+      <c r="C10">
+        <v>810</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1710</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="81">
+        <v>18250</v>
+      </c>
+      <c r="B11" s="81">
+        <v>18749.990000000002</v>
+      </c>
+      <c r="C11">
+        <v>832.5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1757.5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="81">
+        <v>18750</v>
+      </c>
+      <c r="B12" s="81">
+        <v>19249.990000000002</v>
+      </c>
+      <c r="C12">
+        <v>855</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1805</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="81">
+        <v>19250</v>
+      </c>
+      <c r="B13" s="81">
+        <v>19749.990000000002</v>
+      </c>
+      <c r="C13">
+        <v>877.5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1852.5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="81">
+        <v>19750</v>
+      </c>
+      <c r="B14" s="81">
+        <v>20249.990000000002</v>
+      </c>
+      <c r="C14">
+        <v>900</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1900</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="81">
+        <v>20250</v>
+      </c>
+      <c r="B15" s="81">
+        <v>20749.990000000002</v>
+      </c>
+      <c r="C15">
+        <v>900</v>
+      </c>
+      <c r="D15">
+        <v>22.5</v>
+      </c>
+      <c r="E15">
+        <v>1900</v>
+      </c>
+      <c r="F15">
+        <v>47.5</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="81">
+        <v>20750</v>
+      </c>
+      <c r="B16" s="81">
+        <v>21249.99</v>
+      </c>
+      <c r="C16">
+        <v>900</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>1900</v>
+      </c>
+      <c r="F16">
+        <v>95</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="81">
+        <v>21250</v>
+      </c>
+      <c r="B17" s="81">
+        <v>21749.99</v>
+      </c>
+      <c r="C17">
+        <v>900</v>
+      </c>
+      <c r="D17">
+        <v>67.5</v>
+      </c>
+      <c r="E17">
+        <v>1900</v>
+      </c>
+      <c r="F17">
+        <v>142.5</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="81">
+        <v>21750</v>
+      </c>
+      <c r="B18" s="81">
+        <v>22249.99</v>
+      </c>
+      <c r="C18">
+        <v>900</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>1900</v>
+      </c>
+      <c r="F18">
+        <v>190</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="81">
+        <v>22250</v>
+      </c>
+      <c r="B19" s="81">
+        <v>22749.99</v>
+      </c>
+      <c r="C19">
+        <v>900</v>
+      </c>
+      <c r="D19">
+        <v>112.5</v>
+      </c>
+      <c r="E19">
+        <v>1900</v>
+      </c>
+      <c r="F19">
+        <v>237.5</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="81">
+        <v>22750</v>
+      </c>
+      <c r="B20" s="81">
+        <v>23249.99</v>
+      </c>
+      <c r="C20">
+        <v>900</v>
+      </c>
+      <c r="D20">
+        <v>135</v>
+      </c>
+      <c r="E20">
+        <v>1900</v>
+      </c>
+      <c r="F20">
+        <v>285</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="81">
+        <v>23250</v>
+      </c>
+      <c r="B21" s="81">
+        <v>23749.99</v>
+      </c>
+      <c r="C21">
+        <v>900</v>
+      </c>
+      <c r="D21">
+        <v>157.5</v>
+      </c>
+      <c r="E21">
+        <v>1900</v>
+      </c>
+      <c r="F21">
+        <v>332.5</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="81">
+        <v>23750</v>
+      </c>
+      <c r="B22" s="81">
+        <v>24249.99</v>
+      </c>
+      <c r="C22">
+        <v>900</v>
+      </c>
+      <c r="D22">
+        <v>180</v>
+      </c>
+      <c r="E22">
+        <v>1900</v>
+      </c>
+      <c r="F22">
+        <v>380</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
+        <v>24250</v>
+      </c>
+      <c r="B23" s="81">
+        <v>24749.99</v>
+      </c>
+      <c r="C23">
+        <v>900</v>
+      </c>
+      <c r="D23">
+        <v>202.5</v>
+      </c>
+      <c r="E23">
+        <v>1900</v>
+      </c>
+      <c r="F23">
+        <v>427.5</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="81">
+        <v>24750</v>
+      </c>
+      <c r="B24" s="81">
+        <v>25249.99</v>
+      </c>
+      <c r="C24">
+        <v>900</v>
+      </c>
+      <c r="D24">
+        <v>225</v>
+      </c>
+      <c r="E24">
+        <v>1900</v>
+      </c>
+      <c r="F24">
+        <v>475</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
+        <v>25250</v>
+      </c>
+      <c r="B25" s="81">
+        <v>25749.99</v>
+      </c>
+      <c r="C25">
+        <v>900</v>
+      </c>
+      <c r="D25">
+        <v>247.5</v>
+      </c>
+      <c r="E25">
+        <v>1900</v>
+      </c>
+      <c r="F25">
+        <v>522.5</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="81">
+        <v>25750</v>
+      </c>
+      <c r="B26" s="81">
+        <v>26249.99</v>
+      </c>
+      <c r="C26">
+        <v>900</v>
+      </c>
+      <c r="D26">
+        <v>270</v>
+      </c>
+      <c r="E26">
+        <v>1900</v>
+      </c>
+      <c r="F26">
+        <v>570</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="81">
+        <v>26250</v>
+      </c>
+      <c r="B27" s="81">
+        <v>26749.99</v>
+      </c>
+      <c r="C27">
+        <v>900</v>
+      </c>
+      <c r="D27">
+        <v>292.5</v>
+      </c>
+      <c r="E27">
+        <v>1900</v>
+      </c>
+      <c r="F27">
+        <v>617.5</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="81">
+        <v>26750</v>
+      </c>
+      <c r="B28" s="81">
+        <v>27249.99</v>
+      </c>
+      <c r="C28">
+        <v>900</v>
+      </c>
+      <c r="D28">
+        <v>315</v>
+      </c>
+      <c r="E28">
+        <v>1900</v>
+      </c>
+      <c r="F28">
+        <v>665</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="81">
+        <v>27250</v>
+      </c>
+      <c r="B29" s="81">
+        <v>27749.99</v>
+      </c>
+      <c r="C29">
+        <v>900</v>
+      </c>
+      <c r="D29">
+        <v>337.5</v>
+      </c>
+      <c r="E29">
+        <v>1900</v>
+      </c>
+      <c r="F29">
+        <v>712.5</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="81">
+        <v>27750</v>
+      </c>
+      <c r="B30" s="81">
+        <v>28249.99</v>
+      </c>
+      <c r="C30">
+        <v>900</v>
+      </c>
+      <c r="D30">
+        <v>360</v>
+      </c>
+      <c r="E30">
+        <v>1900</v>
+      </c>
+      <c r="F30">
+        <v>760</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="81">
+        <v>28250</v>
+      </c>
+      <c r="B31" s="81">
+        <v>28749.99</v>
+      </c>
+      <c r="C31">
+        <v>900</v>
+      </c>
+      <c r="D31">
+        <v>382.5</v>
+      </c>
+      <c r="E31">
+        <v>1900</v>
+      </c>
+      <c r="F31">
+        <v>807.5</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="81">
+        <v>28750</v>
+      </c>
+      <c r="B32" s="81">
+        <v>29249.99</v>
+      </c>
+      <c r="C32">
+        <v>900</v>
+      </c>
+      <c r="D32">
+        <v>405</v>
+      </c>
+      <c r="E32">
+        <v>1900</v>
+      </c>
+      <c r="F32">
+        <v>855</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="81">
+        <v>29250</v>
+      </c>
+      <c r="B33" s="81">
+        <v>29749.99</v>
+      </c>
+      <c r="C33">
+        <v>900</v>
+      </c>
+      <c r="D33">
+        <v>427.5</v>
+      </c>
+      <c r="E33">
+        <v>1900</v>
+      </c>
+      <c r="F33">
+        <v>902.5</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="81">
+        <v>29750</v>
+      </c>
+      <c r="B34" s="81">
+        <v>1000000</v>
+      </c>
+      <c r="C34">
+        <v>900</v>
+      </c>
+      <c r="D34">
+        <v>450</v>
+      </c>
+      <c r="E34">
+        <v>1900</v>
+      </c>
+      <c r="F34">
+        <v>950</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>